--- a/biology/Médecine/Endométrite/Endométrite.xlsx
+++ b/biology/Médecine/Endométrite/Endométrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Endom%C3%A9trite</t>
+          <t>Endométrite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'endométrite est une infection de l'endomètre. Elle fait le plus souvent suite à l'accouchement, mais elle peut aussi être causée par un geste endo-utérin (interruption volontaire de grossesse, hystérosalpingographie).
 L’endométrite du post-partum est une complication infectieuse commune de l’accouchement. Le premier signe en est la fièvre. Son diagnostic et son traitement permettent d’éviter l’extension de l’infection au péritoine et au pelvis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Endom%C3%A9trite</t>
+          <t>Endométrite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Épidémiologie et facteurs de risque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’accouchement par césarienne est le facteur de risque majeur de l’endométrite. Quatre-vingts pour cent des endométrites du post-partum surviennent après une césarienne, et donc seulement 20 % après un accouchement par voie basse.
 Le risque de développer une endométrite après accouchement par voie basse est inférieur à 3 %, et après césarienne, il est évalué à 15 % chez la femme sans autre facteur de risque, et jusqu’à 90 % dans certaines populations à haut risque.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Endom%C3%A9trite</t>
+          <t>Endométrite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,17 +566,14 @@
           <t>Bactériologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’origine de l’endométrite est classiquement polymicrobienne avec des germes issus de la cavité vaginale aérobies et anaérobies, Gram positif et négatif. L’endométrite est une infection ascendante.
 L’isolement d’un germe unique est retrouvé le plus souvent chez les patientes ayant bénéficié d’une antibioprophylaxie à large spectre à l’accouchement, comme c’est le cas pour l’isolement des entérocoques.
 Le rôle pathogène des mycoplasmes et de Chlamydia, souvent isolés dans l’endomètre, n’est pas clairement établi.
 Il semblerait qu’une fièvre élevée dans les 24 à 48 heures après l’accouchement soit en faveur d’une infection à streptocoque du groupe B, parfois du groupe A.
-Cas particuliers des infections puerpérales à streptocoque du groupe A (Streptococcus pyogenes)
-Les infections puerpérales se manifestent par des endométrites ou des infections d’épisiotomie. Elles concernent environ 0,8 ‰ naissances.
-Elles sont soit d’origine endogène, soit d’origine nosocomiale et sont susceptibles d’évoluer en épidémie au sein d’une structure de soin, le germe étant véhiculé par les mains des patients ou des soignants porteurs. En effet, le réservoir est humain : pharyngé, cutané, anal et vaginal.
-L’identification d’un cas impose l’isolement de la patiente, une antibiothérapie adaptée à l’antibiogramme et la recherche de cas additionnels parmi les sujets “contact” à risque[1] qui sont surveillés pendant 14 jours, ainsi que la recherche de sujets porteurs parmi le personnel soignant.
-La prévention des infections nosocomiales à streptocoque du groupe A repose sur l’hygiène des mains, le port du masque et la préparation du site opératoire en cas de chirurgie. Une telle infection doit faire l’objet d’un signalement auprès des autorités sanitaires.
 </t>
         </is>
       </c>
@@ -573,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Endom%C3%A9trite</t>
+          <t>Endométrite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,10 +599,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Bactériologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cas particuliers des infections puerpérales à streptocoque du groupe A (Streptococcus pyogenes)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les infections puerpérales se manifestent par des endométrites ou des infections d’épisiotomie. Elles concernent environ 0,8 ‰ naissances.
+Elles sont soit d’origine endogène, soit d’origine nosocomiale et sont susceptibles d’évoluer en épidémie au sein d’une structure de soin, le germe étant véhiculé par les mains des patients ou des soignants porteurs. En effet, le réservoir est humain : pharyngé, cutané, anal et vaginal.
+L’identification d’un cas impose l’isolement de la patiente, une antibiothérapie adaptée à l’antibiogramme et la recherche de cas additionnels parmi les sujets “contact” à risque qui sont surveillés pendant 14 jours, ainsi que la recherche de sujets porteurs parmi le personnel soignant.
+La prévention des infections nosocomiales à streptocoque du groupe A repose sur l’hygiène des mains, le port du masque et la préparation du site opératoire en cas de chirurgie. Une telle infection doit faire l’objet d’un signalement auprès des autorités sanitaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Endométrite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endom%C3%A9trite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le signe majeur de l’endométrite du post-partum est la fièvre. Le diagnostic peut être fait sur ce simple signe, les autres étiologies de la fièvre du post-partum ayant été exclues.
 Les autres signes sont des douleurs abdominales basses, un utérus gros et mou, et des lochies abondantes et malodorantes.
@@ -601,31 +654,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Endom%C3%A9trite</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Endométrite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Endom%C3%A9trite</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Complications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque le diagnostic est tardif, l’endométrite peut se compliquer d’infections plus étendues.
 La pelvipéritonite des suites de couches :
@@ -640,31 +695,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Endom%C3%A9trite</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Endométrite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Endom%C3%A9trite</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est clinique devant une fièvre du post-partum entre le 1er et le 10e jour, accompagnée des signes locaux d’endométrite.
 L’examen doit exclure les autres causes de fièvre.
@@ -674,31 +731,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Endom%C3%A9trite</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Endométrite</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Endom%C3%A9trite</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le "Gold Standard" du traitement de l’endométrite du post-partum est la biantibiothérapie intraveineuse associant la clindamycine et la gentamicine. Ce schéma est celui qui a été le plus évalué, d’où sa position privilégiée dans les recommandations d’experts :
 Clindamycine 900 mg/8 h,
